--- a/Data/table_systematic_review.xlsx
+++ b/Data/table_systematic_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\Thesis\Artigo Revisao Systematica - LDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\Thesis\Artigo Revisao Systematica - LDA\Github_Review_textmining\Review_Papers_Text_Mining\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D969C9A0-5A89-48A4-A6D4-1583AB2CDAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21C8FE-7860-491F-8DE2-BE3B4DAFAFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C444505A-3E6F-486A-AADA-85D2987CFEA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C444505A-3E6F-486A-AADA-85D2987CFEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="systematic review" sheetId="1" r:id="rId1"/>
@@ -13157,9 +13157,6 @@
     <t>Persistence of walking in Chile: lessons for urban sustainability</t>
   </si>
   <si>
-    <t>Dynamic</t>
-  </si>
-  <si>
     <t>A high resolution agent-based model to support walk-bicycle infrastructure investment decisions: A case study with New York City</t>
   </si>
   <si>
@@ -13900,9 +13897,6 @@
     <t>2016 - 2020</t>
   </si>
   <si>
-    <t>Frequent abstract</t>
-  </si>
-  <si>
     <t>reversible lane</t>
   </si>
   <si>
@@ -13963,6 +13957,12 @@
   </si>
   <si>
     <t>Kinematic wave theory is used to analyze the viability, costs and benefits of BLIPs.</t>
+  </si>
+  <si>
+    <t>Historical_Analysis</t>
+  </si>
+  <si>
+    <t>Specific_Analysis</t>
   </si>
 </sst>
 </file>
@@ -18441,15 +18441,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J690"/>
   <sheetViews>
-    <sheetView topLeftCell="A544" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E610" sqref="E610"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="6"/>
     <col min="2" max="2" width="14.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" customWidth="1"/>
@@ -18464,10 +18464,10 @@
         <v>192</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1910</v>
+        <v>1929</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1786</v>
+        <v>1930</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -18715,7 +18715,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>28</v>
@@ -18775,7 +18775,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
@@ -18895,7 +18895,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>47</v>
@@ -18964,7 +18964,7 @@
         <v>2018</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18985,7 +18985,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>56</v>
@@ -19225,7 +19225,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>81</v>
@@ -19286,7 +19286,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>87</v>
@@ -19435,7 +19435,7 @@
         <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>99</v>
@@ -19444,7 +19444,7 @@
         <v>2016</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J33" s="15"/>
     </row>
@@ -19647,7 +19647,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>118</v>
@@ -19738,7 +19738,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>126</v>
@@ -19747,7 +19747,7 @@
         <v>2018</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20130,7 +20130,7 @@
         <v>31</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>163</v>
@@ -20139,7 +20139,7 @@
         <v>2017</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20229,7 +20229,7 @@
         <v>2016</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20250,7 +20250,7 @@
         <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>172</v>
@@ -20259,7 +20259,7 @@
         <v>2019</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20410,7 +20410,7 @@
         <v>2016</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20470,7 +20470,7 @@
         <v>2019</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20530,7 +20530,7 @@
         <v>2018</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20581,7 +20581,7 @@
         <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>201</v>
@@ -20620,7 +20620,7 @@
         <v>2020</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21011,7 +21011,7 @@
         <v>2019</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22121,7 +22121,7 @@
         <v>2016</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22241,7 +22241,7 @@
         <v>2013</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24736,7 +24736,7 @@
         <v>2015</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25180,7 +25180,7 @@
         <v>25</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>653</v>
@@ -25189,7 +25189,7 @@
         <v>2015</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25400,7 +25400,7 @@
         <v>2016</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25460,7 +25460,7 @@
         <v>2018</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26482,7 +26482,7 @@
         <v>2019</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27233,7 +27233,7 @@
         <v>2019</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27983,7 +27983,7 @@
         <v>2019</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28133,7 +28133,7 @@
         <v>2019</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28673,7 +28673,7 @@
         <v>1997</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28823,7 +28823,7 @@
         <v>1998</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29033,7 +29033,7 @@
         <v>2014</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29303,7 +29303,7 @@
         <v>2007</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29751,7 +29751,7 @@
         <v>2016</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29802,7 +29802,7 @@
         <v>31</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>1102</v>
@@ -30111,7 +30111,7 @@
         <v>2016</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30861,7 +30861,7 @@
         <v>2016</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31911,7 +31911,7 @@
         <v>2000</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32172,7 +32172,7 @@
         <v>96</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G457" s="1" t="s">
         <v>1332</v>
@@ -32472,7 +32472,7 @@
         <v>96</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G467" s="1" t="s">
         <v>1361</v>
@@ -32502,7 +32502,7 @@
         <v>96</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G468" s="1" t="s">
         <v>1363</v>
@@ -34851,7 +34851,7 @@
         <v>2012</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="547" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34932,7 +34932,7 @@
         <v>1604</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G549" s="1" t="s">
         <v>1605</v>
@@ -35451,7 +35451,7 @@
         <v>2019</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="567" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36147,7 +36147,7 @@
       </c>
       <c r="J589" s="14"/>
     </row>
-    <row r="590" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="23">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -36417,7 +36417,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="23">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -37621,11 +37621,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I608" xr:uid="{72471B0F-7EA6-4088-A6C8-ED55AD85672D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="1996"/>
@@ -37645,7 +37640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B7AA4-D4DA-4A94-B3EB-0728D0194899}">
   <dimension ref="B3:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
@@ -37666,43 +37661,43 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C3" s="50" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>1912</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>1913</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>1914</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="50" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>1914</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>1915</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>1841</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>1917</v>
       </c>
       <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C4">
         <v>127</v>
@@ -37740,7 +37735,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:M5" si="0">C6-C4</f>
@@ -37784,7 +37779,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C6">
         <v>163</v>
@@ -37822,33 +37817,33 @@
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F28" t="s">
         <v>1902</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>1903</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1904</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>1905</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>1906</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>1907</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>1908</v>
-      </c>
-      <c r="L28" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="53" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D29" s="53"/>
       <c r="K29">
@@ -37872,7 +37867,7 @@
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="53" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D31" s="53"/>
       <c r="I31">
@@ -37884,7 +37879,7 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="53" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D32" s="53"/>
       <c r="K32">
@@ -37896,7 +37891,7 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" s="53" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D33" s="53"/>
       <c r="K33">
@@ -37908,7 +37903,7 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34" s="53" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D34" s="53"/>
       <c r="K34">
@@ -37935,7 +37930,7 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" s="53" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D36" s="53"/>
       <c r="L36">
@@ -37944,7 +37939,7 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" s="53" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D37" s="53"/>
       <c r="K37">
@@ -37956,7 +37951,7 @@
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="53" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D38" s="53"/>
       <c r="F38">
@@ -37983,7 +37978,7 @@
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" s="53" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39">
@@ -38044,17 +38039,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -38103,7 +38098,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
       <c r="K1" s="54" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -38113,19 +38108,19 @@
       <c r="Q1" s="54"/>
       <c r="R1" s="54"/>
       <c r="S1" s="55" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="T1" s="56"/>
       <c r="U1" s="56"/>
       <c r="V1" s="56"/>
       <c r="W1" s="56"/>
       <c r="X1" s="57" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="Y1" s="57"/>
       <c r="Z1" s="47"/>
       <c r="AA1" s="58" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -38151,61 +38146,61 @@
         <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>1844</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>1848</v>
-      </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
+        <v>1867</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>1845</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="O2" s="40" t="s">
+        <v>1864</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>1862</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>1846</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>1860</v>
+      </c>
+      <c r="S2" s="36" t="s">
         <v>1868</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>1864</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>1865</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>1863</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>1847</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>1861</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>1869</v>
-      </c>
       <c r="T2" s="36" t="s">
+        <v>1858</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>1850</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>1851</v>
+      </c>
+      <c r="W2" s="36" t="s">
         <v>1859</v>
       </c>
-      <c r="U2" s="35" t="s">
-        <v>1851</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>1852</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>1860</v>
-      </c>
       <c r="X2" s="37" t="s">
+        <v>1856</v>
+      </c>
+      <c r="Y2" s="41" t="s">
         <v>1857</v>
       </c>
-      <c r="Y2" s="41" t="s">
-        <v>1858</v>
-      </c>
       <c r="Z2" s="41" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="AA2" s="58"/>
     </row>
@@ -38235,10 +38230,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -38271,7 +38266,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F4" s="27">
         <v>2017</v>
@@ -38282,7 +38277,7 @@
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="25" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="K4" s="32">
         <v>0</v>
@@ -38306,30 +38301,30 @@
         <v>0</v>
       </c>
       <c r="R4" s="32" t="s">
+        <v>1892</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>0</v>
+      </c>
+      <c r="U4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0</v>
+      </c>
+      <c r="W4" s="32">
+        <v>1</v>
+      </c>
+      <c r="X4" s="25" t="s">
         <v>1893</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>0</v>
-      </c>
-      <c r="U4" s="32">
-        <v>1</v>
-      </c>
-      <c r="V4" s="32">
-        <v>0</v>
-      </c>
-      <c r="W4" s="32">
-        <v>1</v>
-      </c>
-      <c r="X4" s="25" t="s">
-        <v>1894</v>
       </c>
       <c r="Y4" s="32"/>
       <c r="Z4" s="48"/>
       <c r="AA4" s="46" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -38343,7 +38338,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>109</v>
@@ -38358,7 +38353,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="32"/>
@@ -38389,7 +38384,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>115</v>
@@ -38407,7 +38402,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K6" s="32">
         <v>1</v>
@@ -38446,7 +38441,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="Z6" s="25"/>
       <c r="AA6" s="32"/>
@@ -38462,7 +38457,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>126</v>
@@ -38471,13 +38466,13 @@
         <v>2018</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H7" s="32">
         <v>0</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -38527,7 +38522,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K8" s="32">
         <v>1</v>
@@ -38569,14 +38564,14 @@
         <v>0</v>
       </c>
       <c r="X8" s="42" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="Z8" s="42"/>
       <c r="AA8" s="42" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -38605,7 +38600,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -38652,10 +38647,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="K10" s="32">
         <v>1</v>
@@ -38706,7 +38701,7 @@
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="42" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="K11" s="32">
         <v>1</v>
@@ -38728,10 +38723,10 @@
         <v>1</v>
       </c>
       <c r="X11" s="51" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="Y11" s="42" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="Z11" s="42"/>
       <c r="AA11" s="32"/>
@@ -38765,7 +38760,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="K12" s="32">
         <v>1</v>
@@ -38800,7 +38795,7 @@
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
       <c r="Y12" s="42" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="Z12" s="42"/>
       <c r="AA12" s="32"/>
@@ -38831,10 +38826,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
@@ -38883,7 +38878,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="K14" s="32">
         <v>0</v>
@@ -38923,7 +38918,7 @@
         <v>1</v>
       </c>
       <c r="X14" s="25" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="Y14" s="34">
         <v>0</v>
@@ -38957,7 +38952,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -39005,7 +39000,7 @@
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="25" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
@@ -39027,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="X16" s="25" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -39059,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
@@ -39109,7 +39104,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="K18" s="32">
         <v>1</v>
@@ -39154,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="25" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="Z18" s="25"/>
       <c r="AA18" s="32"/>
@@ -39185,7 +39180,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
@@ -39232,10 +39227,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -39252,7 +39247,7 @@
       <c r="W20" s="32"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="25" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="Z20" s="25"/>
       <c r="AA20" s="32"/>
@@ -39284,7 +39279,7 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="25" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="K21" s="32">
         <v>1</v>
@@ -39321,7 +39316,7 @@
       </c>
       <c r="X21" s="34"/>
       <c r="Y21" s="51" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="Z21" s="25"/>
       <c r="AA21" s="32"/>
@@ -39353,40 +39348,40 @@
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="25" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>1</v>
+      </c>
+      <c r="N22" s="32">
+        <v>1</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0</v>
+      </c>
+      <c r="P22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0</v>
+      </c>
+      <c r="R22" s="32">
+        <v>0</v>
+      </c>
+      <c r="S22" s="32">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
+        <v>0</v>
+      </c>
+      <c r="U22" s="32" t="s">
         <v>1888</v>
-      </c>
-      <c r="K22" s="32">
-        <v>1</v>
-      </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
-        <v>1</v>
-      </c>
-      <c r="N22" s="32">
-        <v>1</v>
-      </c>
-      <c r="O22" s="32">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0</v>
-      </c>
-      <c r="T22" s="32">
-        <v>0</v>
-      </c>
-      <c r="U22" s="32" t="s">
-        <v>1889</v>
       </c>
       <c r="V22" s="32">
         <v>1</v>
@@ -39396,7 +39391,7 @@
       </c>
       <c r="X22" s="34"/>
       <c r="Y22" s="25" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="Z22" s="25"/>
       <c r="AA22" s="32"/>
@@ -39428,7 +39423,7 @@
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="25" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="K23" s="32">
         <v>1</v>
@@ -39471,11 +39466,11 @@
       </c>
       <c r="X23" s="34"/>
       <c r="Y23" s="25" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="24" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39505,37 +39500,37 @@
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="25" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K24" s="32">
+        <v>1</v>
+      </c>
+      <c r="L24" s="32">
+        <v>1</v>
+      </c>
+      <c r="M24" s="32">
+        <v>1</v>
+      </c>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>0</v>
+      </c>
+      <c r="P24" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>0</v>
+      </c>
+      <c r="R24" s="32">
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <v>1</v>
+      </c>
+      <c r="T24" s="32" t="s">
         <v>1896</v>
-      </c>
-      <c r="K24" s="32">
-        <v>1</v>
-      </c>
-      <c r="L24" s="32">
-        <v>1</v>
-      </c>
-      <c r="M24" s="32">
-        <v>1</v>
-      </c>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32">
-        <v>0</v>
-      </c>
-      <c r="S24" s="32">
-        <v>1</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>1897</v>
       </c>
       <c r="U24" s="32">
         <v>0</v>
@@ -39548,11 +39543,11 @@
       </c>
       <c r="X24" s="34"/>
       <c r="Y24" s="25" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="Z24" s="34"/>
       <c r="AA24" s="25" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
   </sheetData>

--- a/Data/table_systematic_review.xlsx
+++ b/Data/table_systematic_review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\Thesis\Artigo Revisao Systematica - LDA\Github_Review_textmining\Review_Papers_Text_Mining\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21C8FE-7860-491F-8DE2-BE3B4DAFAFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F606A-EFE8-4DDA-A8A7-48BC9B023975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C444505A-3E6F-486A-AADA-85D2987CFEA7}"/>
   </bookViews>
@@ -18438,17 +18438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA8BE7-91D8-4207-B2C8-488117008F3B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="14.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
@@ -18488,7 +18487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -18547,7 +18546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18577,7 +18576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18607,7 +18606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18637,7 +18636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18667,7 +18666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18697,7 +18696,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18727,7 +18726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18757,7 +18756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18787,7 +18786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18817,7 +18816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18847,7 +18846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18877,7 +18876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18907,7 +18906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18937,7 +18936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18967,7 +18966,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18997,7 +18996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19027,7 +19026,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19057,7 +19056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19087,7 +19086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19117,7 +19116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19147,7 +19146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19177,7 +19176,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19207,7 +19206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19237,7 +19236,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19268,7 +19267,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19299,7 +19298,7 @@
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19327,7 +19326,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19357,7 +19356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19387,7 +19386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19417,7 +19416,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19448,7 +19447,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19478,7 +19477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19508,7 +19507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -19538,7 +19537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -19569,7 +19568,7 @@
       </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -19599,7 +19598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -19629,7 +19628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -19659,7 +19658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19690,7 +19689,7 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" s="19" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -19720,7 +19719,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -19750,7 +19749,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -19780,7 +19779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -19810,7 +19809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -19841,7 +19840,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -19871,7 +19870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -19901,7 +19900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -19931,7 +19930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -19962,7 +19961,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -19992,7 +19991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -20022,7 +20021,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -20052,7 +20051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -20082,7 +20081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -20112,7 +20111,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -20142,7 +20141,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -20172,7 +20171,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -20202,7 +20201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -20232,7 +20231,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -20262,7 +20261,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -20292,7 +20291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -20322,7 +20321,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -20352,7 +20351,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -20383,7 +20382,7 @@
       </c>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -20413,7 +20412,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -20443,7 +20442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <f t="shared" ref="A67:A130" si="1">A66+1</f>
         <v>66</v>
@@ -20473,7 +20472,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20503,7 +20502,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20533,7 +20532,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20563,7 +20562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20593,7 +20592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20623,7 +20622,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20653,7 +20652,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20684,7 +20683,7 @@
       </c>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20714,7 +20713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20744,7 +20743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20774,7 +20773,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20804,7 +20803,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20834,7 +20833,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20864,7 +20863,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20894,7 +20893,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20924,7 +20923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20954,7 +20953,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20984,7 +20983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -21014,7 +21013,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -21044,7 +21043,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -21104,7 +21103,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -21134,7 +21133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -21164,7 +21163,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -21194,7 +21193,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -21224,7 +21223,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -21254,7 +21253,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -21284,7 +21283,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -21314,7 +21313,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -21344,7 +21343,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -21374,7 +21373,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -21404,7 +21403,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -21434,7 +21433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -21464,7 +21463,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -21494,7 +21493,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -21524,7 +21523,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -21554,7 +21553,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -21584,7 +21583,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -21614,7 +21613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -21644,7 +21643,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -21674,7 +21673,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -21704,7 +21703,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -21734,7 +21733,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -21764,7 +21763,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -21794,7 +21793,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -21824,7 +21823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -21854,7 +21853,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -21884,7 +21883,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -21914,7 +21913,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -21944,7 +21943,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -21974,7 +21973,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -22004,7 +22003,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -22034,7 +22033,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -22064,7 +22063,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -22094,7 +22093,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -22124,7 +22123,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -22154,7 +22153,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -22184,7 +22183,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -22214,7 +22213,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -22244,7 +22243,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -22274,7 +22273,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -22304,7 +22303,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -22334,7 +22333,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -22364,7 +22363,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <f t="shared" ref="A131:A194" si="2">A130+1</f>
         <v>130</v>
@@ -22394,7 +22393,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -22424,7 +22423,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -22454,7 +22453,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -22484,7 +22483,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -22514,7 +22513,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -22544,7 +22543,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -22574,7 +22573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -22604,7 +22603,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -22634,7 +22633,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -22664,7 +22663,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -22694,7 +22693,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -22724,7 +22723,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -22754,7 +22753,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -22784,7 +22783,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -22814,7 +22813,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -22844,7 +22843,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -22874,7 +22873,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -22904,7 +22903,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -22934,7 +22933,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -22964,7 +22963,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -22994,7 +22993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -23024,7 +23023,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -23054,7 +23053,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -23084,7 +23083,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -23114,7 +23113,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -23144,7 +23143,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -23174,7 +23173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -23204,7 +23203,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -23234,7 +23233,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -23264,7 +23263,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -23294,7 +23293,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -23324,7 +23323,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -23354,7 +23353,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -23385,7 +23384,7 @@
       </c>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -23416,7 +23415,7 @@
       </c>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -23446,7 +23445,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -23476,7 +23475,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -23506,7 +23505,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -23536,7 +23535,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -23567,7 +23566,7 @@
       </c>
       <c r="J170" s="21"/>
     </row>
-    <row r="171" spans="1:10" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -23597,7 +23596,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -23627,7 +23626,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -23658,7 +23657,7 @@
       </c>
       <c r="J173" s="10"/>
     </row>
-    <row r="174" spans="1:10" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -23689,7 +23688,7 @@
       </c>
       <c r="J174" s="10"/>
     </row>
-    <row r="175" spans="1:10" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -23719,7 +23718,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -23749,7 +23748,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -23779,7 +23778,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -23809,7 +23808,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -23839,7 +23838,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -23869,7 +23868,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -23899,7 +23898,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -23929,7 +23928,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -23959,7 +23958,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -23989,7 +23988,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -24019,7 +24018,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -24049,7 +24048,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -24079,7 +24078,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -24109,7 +24108,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -24139,7 +24138,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -24169,7 +24168,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -24199,7 +24198,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -24229,7 +24228,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -24259,7 +24258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -24289,7 +24288,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <f t="shared" ref="A195:A258" si="3">A194+1</f>
         <v>194</v>
@@ -24319,7 +24318,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -24349,7 +24348,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -24379,7 +24378,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -24409,7 +24408,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -24439,7 +24438,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -24469,7 +24468,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -24499,7 +24498,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -24529,7 +24528,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -24559,7 +24558,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -24589,7 +24588,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -24619,7 +24618,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -24649,7 +24648,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -24679,7 +24678,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -24709,7 +24708,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -24739,7 +24738,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -24770,7 +24769,7 @@
       </c>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:10" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -24800,7 +24799,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -24830,7 +24829,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -24860,7 +24859,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -24890,7 +24889,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -24920,7 +24919,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -24950,7 +24949,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -24981,7 +24980,7 @@
       </c>
       <c r="J217" s="10"/>
     </row>
-    <row r="218" spans="1:10" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -25011,7 +25010,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -25041,7 +25040,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -25071,7 +25070,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -25101,7 +25100,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -25131,7 +25130,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -25162,7 +25161,7 @@
       </c>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:10" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -25192,7 +25191,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -25222,7 +25221,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -25252,7 +25251,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -25282,7 +25281,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -25312,7 +25311,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -25343,7 +25342,7 @@
       </c>
       <c r="J229" s="10"/>
     </row>
-    <row r="230" spans="1:10" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -25373,7 +25372,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -25403,7 +25402,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -25433,7 +25432,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -25463,7 +25462,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -25493,7 +25492,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -25523,7 +25522,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -25553,7 +25552,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -25583,7 +25582,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -25613,7 +25612,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -25643,7 +25642,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -25673,7 +25672,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -25703,7 +25702,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -25733,7 +25732,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -25763,7 +25762,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -25793,7 +25792,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -25823,7 +25822,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -25853,7 +25852,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -25884,7 +25883,7 @@
       </c>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -25914,7 +25913,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -25944,7 +25943,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -25974,7 +25973,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -26004,7 +26003,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -26035,7 +26034,7 @@
       </c>
       <c r="J252" s="10"/>
     </row>
-    <row r="253" spans="1:10" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -26065,7 +26064,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -26095,7 +26094,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -26125,7 +26124,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -26155,7 +26154,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -26185,7 +26184,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -26215,7 +26214,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <f t="shared" ref="A259:A322" si="4">A258+1</f>
         <v>258</v>
@@ -26245,7 +26244,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -26275,7 +26274,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -26305,7 +26304,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -26335,7 +26334,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -26365,7 +26364,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -26395,7 +26394,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -26425,7 +26424,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -26455,7 +26454,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -26485,7 +26484,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -26515,7 +26514,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -26545,7 +26544,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -26575,7 +26574,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -26605,7 +26604,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -26636,7 +26635,7 @@
       </c>
       <c r="J272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -26666,7 +26665,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -26696,7 +26695,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -26726,7 +26725,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -26756,7 +26755,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -26786,7 +26785,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -26816,7 +26815,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -26846,7 +26845,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -26876,7 +26875,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -26906,7 +26905,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -26936,7 +26935,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -26966,7 +26965,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -26996,7 +26995,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -27026,7 +27025,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -27056,7 +27055,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -27086,7 +27085,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -27116,7 +27115,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -27146,7 +27145,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -27176,7 +27175,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -27206,7 +27205,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -27236,7 +27235,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -27266,7 +27265,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -27296,7 +27295,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -27326,7 +27325,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -27356,7 +27355,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -27386,7 +27385,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -27416,7 +27415,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -27446,7 +27445,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -27476,7 +27475,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -27506,7 +27505,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -27536,7 +27535,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -27566,7 +27565,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -27596,7 +27595,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -27626,7 +27625,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -27656,7 +27655,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -27686,7 +27685,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -27716,7 +27715,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -27746,7 +27745,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -27776,7 +27775,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -27806,7 +27805,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -27836,7 +27835,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -27866,7 +27865,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -27896,7 +27895,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -27926,7 +27925,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -27956,7 +27955,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -27986,7 +27985,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -28016,7 +28015,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -28046,7 +28045,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -28076,7 +28075,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -28106,7 +28105,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -28136,7 +28135,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <f t="shared" ref="A323:A386" si="5">A322+1</f>
         <v>322</v>
@@ -28166,7 +28165,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -28196,7 +28195,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -28226,7 +28225,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -28256,7 +28255,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -28316,7 +28315,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -28346,7 +28345,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -28376,7 +28375,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -28406,7 +28405,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -28436,7 +28435,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -28466,7 +28465,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -28496,7 +28495,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -28526,7 +28525,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -28556,7 +28555,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -28586,7 +28585,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -28616,7 +28615,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -28676,7 +28675,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -28706,7 +28705,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -28736,7 +28735,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -28766,7 +28765,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -28826,7 +28825,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -28856,7 +28855,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -28886,7 +28885,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -28916,7 +28915,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -28946,7 +28945,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -28976,7 +28975,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -29006,7 +29005,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -29036,7 +29035,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -29066,7 +29065,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -29096,7 +29095,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -29126,7 +29125,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -29186,7 +29185,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -29216,7 +29215,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -29246,7 +29245,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -29276,7 +29275,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -29306,7 +29305,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -29336,7 +29335,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -29366,7 +29365,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -29396,7 +29395,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -29424,7 +29423,7 @@
       </c>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -29454,7 +29453,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -29484,7 +29483,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -29514,7 +29513,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -29544,7 +29543,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -29574,7 +29573,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -29604,7 +29603,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -29634,7 +29633,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -29664,7 +29663,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -29694,7 +29693,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -29724,7 +29723,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -29754,7 +29753,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -29784,7 +29783,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -29814,7 +29813,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -29844,7 +29843,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -29874,7 +29873,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -29934,7 +29933,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -29964,7 +29963,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -30024,7 +30023,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -30054,7 +30053,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7">
         <f t="shared" ref="A387:A450" si="6">A386+1</f>
         <v>386</v>
@@ -30084,7 +30083,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="7">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -30114,7 +30113,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -30144,7 +30143,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -30174,7 +30173,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -30204,7 +30203,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -30234,7 +30233,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -30264,7 +30263,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -30294,7 +30293,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -30324,7 +30323,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -30354,7 +30353,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -30384,7 +30383,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -30414,7 +30413,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="7">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -30444,7 +30443,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="7">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -30474,7 +30473,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="7">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -30504,7 +30503,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="7">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -30534,7 +30533,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="7">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -30564,7 +30563,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -30594,7 +30593,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -30624,7 +30623,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -30654,7 +30653,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -30714,7 +30713,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -30774,7 +30773,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -30834,7 +30833,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="7">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -30864,7 +30863,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -30894,7 +30893,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="7">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -30924,7 +30923,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -30954,7 +30953,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -30984,7 +30983,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -31014,7 +31013,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="7">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -31044,7 +31043,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="7">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -31074,7 +31073,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="7">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -31104,7 +31103,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -31164,7 +31163,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="7">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -31224,7 +31223,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="7">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -31254,7 +31253,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="7">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -31284,7 +31283,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="7">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -31314,7 +31313,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -31344,7 +31343,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -31374,7 +31373,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="7">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -31404,7 +31403,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -31434,7 +31433,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="7">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -31464,7 +31463,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="7">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -31494,7 +31493,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="7">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -31524,7 +31523,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -31554,7 +31553,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -31584,7 +31583,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -31614,7 +31613,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="7">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -31644,7 +31643,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="22">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -31674,7 +31673,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -31704,7 +31703,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -31734,7 +31733,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -31764,7 +31763,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -31794,7 +31793,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -31824,7 +31823,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -31854,7 +31853,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -31914,7 +31913,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -31944,7 +31943,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -31974,7 +31973,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f t="shared" ref="A451:A514" si="7">A450+1</f>
         <v>450</v>
@@ -32004,7 +32003,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -32034,7 +32033,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="23">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -32064,7 +32063,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -32094,7 +32093,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="23">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -32124,7 +32123,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="23">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -32154,7 +32153,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="23">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -32184,7 +32183,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -32214,7 +32213,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -32244,7 +32243,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="23">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -32274,7 +32273,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -32304,7 +32303,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -32334,7 +32333,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -32364,7 +32363,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -32394,7 +32393,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -32424,7 +32423,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -32454,7 +32453,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="23">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -32484,7 +32483,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="23">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -32514,7 +32513,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -32544,7 +32543,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -32574,7 +32573,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -32604,7 +32603,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -32634,7 +32633,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -32664,7 +32663,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -32694,7 +32693,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="23">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -32724,7 +32723,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -32754,7 +32753,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="23">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -32784,7 +32783,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -32814,7 +32813,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -32844,7 +32843,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="23">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -32874,7 +32873,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="23">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -32904,7 +32903,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -32934,7 +32933,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="23">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -32964,7 +32963,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -32994,7 +32993,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -33024,7 +33023,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="23">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -33054,7 +33053,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="23">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -33084,7 +33083,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="23">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -33114,7 +33113,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -33144,7 +33143,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -33174,7 +33173,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="23">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -33204,7 +33203,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="23">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -33234,7 +33233,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -33264,7 +33263,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="23">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -33324,7 +33323,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="23">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -33354,7 +33353,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="23">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -33384,7 +33383,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -33414,7 +33413,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="23">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -33444,7 +33443,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="23">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -33474,7 +33473,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -33504,7 +33503,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="23">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -33534,7 +33533,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="23">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -33564,7 +33563,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="23">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -33594,7 +33593,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="23">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -33624,7 +33623,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="23">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -33654,7 +33653,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="23">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -33684,7 +33683,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="23">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -33714,7 +33713,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="23">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -33744,7 +33743,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -33774,7 +33773,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="23">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -33804,7 +33803,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="23">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -33834,7 +33833,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="23">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -33864,7 +33863,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="23">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -33894,7 +33893,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="23">
         <f t="shared" ref="A515:A578" si="8">A514+1</f>
         <v>514</v>
@@ -33924,7 +33923,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="23">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -33954,7 +33953,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="23">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -33984,7 +33983,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="23">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -34014,7 +34013,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="23">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -34044,7 +34043,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="23">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -34074,7 +34073,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="23">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -34104,7 +34103,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -34134,7 +34133,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="23">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -34164,7 +34163,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="23">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -34194,7 +34193,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="23">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -34254,7 +34253,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="23">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -34284,7 +34283,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="23">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -34314,7 +34313,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="23">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -34344,7 +34343,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="23">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -34374,7 +34373,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="23">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -34404,7 +34403,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="23">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -34434,7 +34433,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="23">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -34464,7 +34463,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="23">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -34494,7 +34493,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="23">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -34524,7 +34523,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="23">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -34554,7 +34553,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="23">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -34584,7 +34583,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="23">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -34614,7 +34613,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="23">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -34644,7 +34643,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="23">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -34674,7 +34673,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="23">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -34734,7 +34733,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="23">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -34794,7 +34793,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="23">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -34824,7 +34823,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="23">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -34884,7 +34883,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="23">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -34914,7 +34913,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="23">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -34944,7 +34943,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="23">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -34974,7 +34973,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="23">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -35004,7 +35003,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="23">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -35034,7 +35033,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="23">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -35064,7 +35063,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="23">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -35094,7 +35093,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="23">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -35124,7 +35123,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="23">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -35154,7 +35153,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="23">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -35184,7 +35183,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="23">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -35214,7 +35213,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="23">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -35244,7 +35243,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="23">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -35274,7 +35273,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="23">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -35304,7 +35303,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="23">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -35334,7 +35333,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="23">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -35364,7 +35363,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="23">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -35394,7 +35393,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="23">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -35424,7 +35423,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="23">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -35454,7 +35453,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="23">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -35484,7 +35483,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="23">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -35514,7 +35513,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="23">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -35544,7 +35543,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="23">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -35574,7 +35573,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="23">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -35604,7 +35603,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="23">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -35634,7 +35633,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="23">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -35664,7 +35663,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="23">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -35694,7 +35693,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="23">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -35724,7 +35723,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="23">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -35754,7 +35753,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="23">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -35784,7 +35783,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="23">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -35814,7 +35813,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="23">
         <f t="shared" ref="A579:A608" si="9">A578+1</f>
         <v>578</v>
@@ -35844,7 +35843,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="23">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -35904,7 +35903,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="23">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -35934,7 +35933,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="23">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -35964,7 +35963,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="23">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -35994,7 +35993,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="23">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -36024,7 +36023,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="23">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -36054,7 +36053,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="23">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -36085,7 +36084,7 @@
       </c>
       <c r="J587" s="14"/>
     </row>
-    <row r="588" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="23">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -36116,7 +36115,7 @@
       </c>
       <c r="J588" s="14"/>
     </row>
-    <row r="589" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="23">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -36177,7 +36176,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="23">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -36207,7 +36206,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="23">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -36237,7 +36236,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="23">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -36267,7 +36266,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="23">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -36297,7 +36296,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="23">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -36327,7 +36326,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="23">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -36357,7 +36356,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="23">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -36387,7 +36386,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="23">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -36447,7 +36446,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="23">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -36477,7 +36476,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="23">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -36507,7 +36506,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="23">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -36537,7 +36536,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="23">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -36567,7 +36566,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="23">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -36597,7 +36596,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="23">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -36627,7 +36626,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="23">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -36657,7 +36656,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="23">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -36687,7 +36686,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="23">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -37620,17 +37619,7 @@
       <c r="I690" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I608" xr:uid="{72471B0F-7EA6-4088-A6C8-ED55AD85672D}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1996"/>
-        <filter val="1997"/>
-        <filter val="1998"/>
-        <filter val="1999"/>
-        <filter val="2000"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I608" xr:uid="{72471B0F-7EA6-4088-A6C8-ED55AD85672D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -38039,17 +38028,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -38062,7 +38051,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>

--- a/Data/table_systematic_review.xlsx
+++ b/Data/table_systematic_review.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\Thesis\Artigo Revisao Systematica - LDA\Github_Review_textmining\Review_Papers_Text_Mining\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F606A-EFE8-4DDA-A8A7-48BC9B023975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC9308-67AF-403F-B1DA-85DFE8DB763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C444505A-3E6F-486A-AADA-85D2987CFEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="systematic review" sheetId="1" r:id="rId1"/>
-    <sheet name="Descriptive analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Analysis 1st Review" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Analysis 1st Review'!$A$2:$W$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'systematic review'!$A$1:$I$608</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="1838">
   <si>
     <t>Title</t>
   </si>
@@ -13652,313 +13649,6 @@
 framework for discerning power law and other heavy-tailed distributions in empirical data.</t>
   </si>
   <si>
-    <t>Included paper</t>
-  </si>
-  <si>
-    <t>Excluded paper</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Big data</t>
-  </si>
-  <si>
-    <t>space allocation</t>
-  </si>
-  <si>
-    <t>Sharing urban sidewalks with bicyclists? Na exploratory analysis of pedestrian perceptions and attitudes</t>
-  </si>
-  <si>
-    <t>A scalable non-myopic dynamic dial-a-ride and pricing problem for competitive on-demand mobility systems</t>
-  </si>
-  <si>
-    <t>Included in second review</t>
-  </si>
-  <si>
-    <t>Dyn. Demand</t>
-  </si>
-  <si>
-    <t>Dyn. Bus</t>
-  </si>
-  <si>
-    <t>Dyn. Pedestrian</t>
-  </si>
-  <si>
-    <t>Focus of paper</t>
-  </si>
-  <si>
-    <t>Exclusion criteria</t>
-  </si>
-  <si>
-    <t>Dynamic application of paper</t>
-  </si>
-  <si>
-    <t>Public acceptance</t>
-  </si>
-  <si>
-    <t>Performance evaluation (transport, place making, environment)</t>
-  </si>
-  <si>
-    <t>The paper executes a review on the methodologies and application of Level of service in urban streets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The paper does not include dynamic applications of road space allocation performance evaluation. Although, in the last sentence of the paper, the authors mention that with ITS, level of service could be dynamically evaluated in the future. </t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Qualitative</t>
-  </si>
-  <si>
-    <t>Quantitative</t>
-  </si>
-  <si>
-    <t>Methodology for choosing where, and when to dynamically re-use.</t>
-  </si>
-  <si>
-    <t>Governance, policy</t>
-  </si>
-  <si>
-    <t>Dyn. Or temporary Public space usage (non transport usage)</t>
-  </si>
-  <si>
-    <t>focus on the application of temporary spaces in vacant spaces, and the relationship between temporary spaces and urban revitalization. The paper verifies if temporary uses can promote a flexible planning and creating a new form of governance; and if it can promote more livable spaces. Lack on considering different demands.</t>
-  </si>
-  <si>
-    <t>Dyn. Cycling</t>
-  </si>
-  <si>
-    <t>Dyn. Lane (private motorized vehicles)</t>
-  </si>
-  <si>
-    <t>Rescue services ( ambulances and fire-fighters)</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>‘‘Dynamic circulation lane allocation’’ aims at providing a system designed to share circulation lanes dynamically
-between public transportation (buses) or rescue services (fire-fighters and ambulances) and personal vehicle transportation in order to share traffic lanes appropriately in the context of low frequency of specialized traffic or lack of space (impossi- bility or inadequacy of static allocation of circulation lanes). When there are no buses, all lanes are allocated to general traffic. When a bus approaches and on the bus driver’s request, the right-hand lane is reserved for it. Once the bus has passed, the reserved lane is returned to general traffic (Fig. 2). However, if all lanes are already jammed, the system switches to ‘‘static mode’’, i.e. the right-hand lane is allocated to buses permanently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyn. Technology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology development, system architecture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the paper is to reduce congestion by reallocating traffic lanes.  Evaluate the design and implementation of a dynamic reallocation of road space, by counting on ICT systems.  Initiates the discussion of dynamic circulation lane. This is applied in highways. "a large number of varied solutions, from the more physical (ad hoc movement of
-low walls with trucks) to the more informational (signposts with variable displays), enabling lesser or greater speed of dynamicity. "System arquitecture: "In and near the road
-lanes, information sensors are installed to collect the state of the traffic and priority requests. In and near the lanes, vertical and horizontal signaling is also implemented, able to receive positioning commands from the management system. Main users of the system are active users such as bus drivers, ambulances, firemen, possibly trucks with their vehicles which require behavioral changes on lane allocation. Passive users, mainly personal vehicles, are receivers of the imposed modifi- cations either by observation of displayers’ changes, or by means of more direct information sent to in-vehicle User Interfaces." Active transportation is not included in the dynamicity, however, these users recieve information on how the road is currently displayed.  Vertical and horizontal signalling indicate to the drivers what they can or not do. THe paper evaluated the acceptability of only the drivers, which questions were addresed based on images of the simulation. This allowed the authors to evaluate the application of the signalling and driver's behavior and acceptance, but did not take into account the amount of time to respond to the questions, which in a real situation, people would need to behave in a more responsive manner. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This paper is focused on evaluating the interactions between pedestrians and cyclists in sharing the space, rather than the space adapting to both demands. </t>
-  </si>
-  <si>
-    <t>The paper proposes a smart-on-demand mobility systems, including ridesourcing and public transit, however does not take into account the built environment requirements, or dynamic changes of the urban space. The methodology framework is threefold: i) analyze the routes of vehicles, ii) forecast passenger travel demand, iii) reposition and vary the demand of vehicles. THe authors "propose a new non-myopic policy that retains the core network structure, based on the premise of using queuing theory to approximate the future steady-state condition for non-myopic dynamic dial-a-ride and pricing(DARP)".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The paper focus on dynamically assessing green infrastructure management (social, technological and ecological dimensions) and allocating resources by using technology and automation, but does not relate with the built environment or urban spaces or reallocation of this infrastructure.  </t>
-  </si>
-  <si>
-    <t>"The objective of this work is to unveil the inter-relations between the urban street network and the dynamics of traffic, in order to develop new, real-time, decision-making tools that can be used by planners." "In order to be able to intervene and affect the nature of different urban areas, planners must adopt new tools that are based on real-time, short-term approaches. These will bridge the gap between static long-term urban planning and the flexible and dynamic urban rhythm, and enable planners to keep their role in the formation of better cities."</t>
-  </si>
-  <si>
-    <t>"In this study, we primarily intend to initially examine the application of big data in sustainable and li- vable transportation strategies in Taipei City, Taiwan.""big data pertaining to urban transportation were analyzed to predict the future dynamic trends of the key indices and prioritize the sustainable and livable strategies for our empirical area under dynamic temporal and spatial changes". "we thus applied dy- namic network process in conjunction with data-mining techniques to treat urban development as a dynamic or evolutional process.""The focus of this study is to return to the essence of urban development with dy- namic perspective that toward realistic urban situations. And, for achieving ultimate goal of urban sustainability and urban livability (Yigitcanlar and Teriman, 2015), we expect to formulate a more transparent and realistic urban development strategies that incorporate only few concise tools and materials, including Fuzzy Delphi method, extendible open data (i.e., big data), auto-regressive integrated moving average model and Analytic Network Process."</t>
-  </si>
-  <si>
-    <t>No relevance at all.</t>
-  </si>
-  <si>
-    <t>"Though the main motive of no-car schemes is largely rooted in environmental concerns, in this study, we tried to show that they can also help to alleviate chronic traffic congestion. In other words, closing roads to vehicles can sometimes improve traffic circulation, a phenomenon known as Braess Paradox. The idea is to find a number of Braess-tainted roads to be closed with the aim of alleviating traffic congestion, or, as it is called, the Braess Paradox Detection Problem (BPDP)."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although the paper explores a optimization methodology for selecting the roads that should be closed for improving traffic according to the Braess Paradox, it takes into account fixed reallocation of space. For this reason it was decided not to include the paper, even though, it consider varying demands. </t>
-  </si>
-  <si>
-    <t>"The calculation of space allocation by transport mode is based on the selection of high-resolution satellite images in digital format, using a geographical infor- mation system (GIS) to derive area measurements in m2"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"the purpose of this paper is to develop a measurement methodology for
-space allocation in urban transport contexts, to test this methodology, and to discuss its results. Focus is on European cities, which are structurally different from North American or Asian cities." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The paper focuses on reallocation of space, and how urban space is limited. Although it mentions that new forms of designs must be enhanced according to transport volume and distance traveled, it does not mention dynamic application of urban design or how to do this. </t>
-  </si>
-  <si>
-    <t>This paper develops a novel approach to identify where flexibility
-can best be embedded in urban flood risk management systems. This has been developed by drawing on knowledge and procedures from the automobile and aerospace industries, where flexible adaptation plan- ning is everyday practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although it mentions flexibility and place making aspects, it focus only on water sensitive cities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not relevant. Historic heritage renovation developments. </t>
-  </si>
-  <si>
-    <t>"A further examination of current SDI operation reveals that the large and unbalanced left-turning traffic volume coupled with limited spacing and turning lanes on the internal link contributes most to its failure. Realizing this problem, this research develops a new way to significantly improve the operation of the SDI using dynamic reversible lanes (DRL) in the internal link." "The basic concept is to set all the left-turn lanes in the internal link as reversible by using overhead revers- ible lane control signs. These lanes have the flexibility to be used by different directions during different periods of a signal cycle depending on left-turn volumes and patterns. Such a design would enable a dynamic and integrated utilization of the internal link space and signal green times, resulting a substantial increase of the internal link capacity without the need of major construction." Application in highways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"We present a macroscopic approach for allocating road space among modes of transport with the objective
-of minimizing the total travel time of travelers." "While recent findings in the macroscopic modeling and dynamics of traffic in cities have provided knowledge of single-mode/single-region cities and single-mode/multi-region cities, the understanding of multi- mode, multi-region cities is limited." "In this paper, we present a macroscopic approach for optimizing road space allocation for multimodal transport systems
-with focus on two modes of transport, cars and buses and two regions, the city center and the periphery". "Congestion pricing strategies for cars are also considered to further facilitate the demand shift when preferential treatment to buses is offered." </t>
-  </si>
-  <si>
-    <t>"I analyze the imagined and actual role of community-led interim uses
-through the study of the commissioning of a temporary youth center on a vacant plot of land, as part ofinterim use programs in the areas surrounding the London 2012 Olympic Games site. The paper aims to contribute to debates about the emergence of temporary urbanism and pop-up urban geographies at times of austerity (Harris, 2015), and specifically about the potentially long-term implications of temporary community- oriented projects for local urban development"</t>
-  </si>
-  <si>
-    <t>"This paper proposes a macroscopic framework for integrated modeling and optimization of the
-multimodal urban transport infrastructure capacity management and operations." "Due to practical
-feasibility, the change of space allocation should not appear too frequently on the urban road. We consider it is indeed manageable to give one or more lanes for buses in a fraction of roads in the network during the peak period. In other words, some lanes are designated as bus only during the peak period, while after the rush hours, other vehicles can use these lanes as well". Dynamic Bus lanes!</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>travel behavior</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Focuses on land-use modelling, and its spatio and temporal dynamics. </t>
-  </si>
-  <si>
-    <t>"In cities with a surplus of underused, abandoned, or vacant space, along with a need for urban revitalization. Such experiments are often characterized by their limited duration, temporary use of borrowed land, and experimental, commu- nity driven design and operation. This study interrogates the possibility of using such “Flexible Spaces” as tools for pursuing a third-way of engaging in urban planning for shared space, instead of conventional expert-led and procedural-participatory frameworks." "we propose a framework for creating Flexible Spaces
-that are minimally regulated, reconfigurable and democratically available on a rotating basis to individuals and groups who wish to use those spaces for activities of a limited spatial and temporal tenancy."</t>
-  </si>
-  <si>
-    <t>Flexible Space as a starting point for envisioning how consciously created environments that integrate al- ternative approaches to tenancy, use, exclusivity, and imagination might address some of the failures of conventional planning. Flexible Spaces are intended to offer reconfigurable, rotating, non-permanent, non-exclusive forms of land use that enable a broad range of spatial experiments.</t>
-  </si>
-  <si>
-    <t>1 - temporary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition of the concept and demonstration of sucessful examples. </t>
-  </si>
-  <si>
-    <t>Intermittent Bus Lane (IBL), introduced by Viegas (1996).
-This is a lane in which the status of a given section changes according to the presence or not of a bus in its spatial domain: when a bus is approaching such a section, the status of that lane is chan- ged to BUS lane, and after the bus moves out of the section, it becomes a normal lane again, open to general traffi</t>
-  </si>
-  <si>
-    <t>"This paper describes the application of IBL technique within an area where there are several bus
-lines, showing how the co-ordinated setting ofIBL (longitudinal) signals and traffic control (trans- versal) signals at a set of intersections in an urban area can significantly improve the overall per- formance of traffic movements in that area."</t>
-  </si>
-  <si>
-    <t>1 - when</t>
-  </si>
-  <si>
-    <t>"This paper evaluates strategies for operating buses on signal-controlled arterials using special lanes that are made intermittently available to general traffic". "We find that bus lanes with intermittent priority (BLIPs), unlike dedicated ones, do not significantly reduce street capacity. Intermittence, however, increases the average traffic density at which the demand is served, and as a result increases traffic delay." "hat the bus passes through several intersections with green signals: the bus does not derive benefit from BLIP when passing green signals. The primary benefit to the bus is jump- ing traffic queues at intersections."</t>
-  </si>
-  <si>
-    <t>"A changeable message signs at the far side of every intersection communicate to drivers the
-BLIP status: lane restricted or lane available. This mechanism automatically flushes all vehicles out of the bus lane at every intersection immediately after its downstream restriction is activated—the vehicle queue on all lanes (state J) simply discharges into a reduced set of lanes (state E2) during the green period."</t>
-  </si>
-  <si>
-    <t>John Carr, Maria Rita Dionisio</t>
-  </si>
-  <si>
-    <t>Full Paper</t>
-  </si>
-  <si>
-    <t>1978 - 1985</t>
-  </si>
-  <si>
-    <t>1986 - 1990</t>
-  </si>
-  <si>
-    <t>1991 - 1995</t>
-  </si>
-  <si>
-    <t>1996 - 2000</t>
-  </si>
-  <si>
-    <t>2001 - 2005</t>
-  </si>
-  <si>
-    <t>2006 - 2010</t>
-  </si>
-  <si>
-    <t>2011 - 2015</t>
-  </si>
-  <si>
-    <t>2016 - 2020</t>
-  </si>
-  <si>
-    <t>reversible lane</t>
-  </si>
-  <si>
-    <t>Intermittent Bus Lane/ Bus Lane with Intermittent Priority/ IBL/ BLIP</t>
-  </si>
-  <si>
-    <t>road diet/ lane diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shared spaces/ shared streets/ woonerf </t>
-  </si>
-  <si>
-    <t>smart urban mobility/ smart mobility</t>
-  </si>
-  <si>
-    <t>traffic calming/ traffic-calming</t>
-  </si>
-  <si>
-    <t>urban regeneration/ urban revitalization/ urban requalification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A parameterized heuristic (dynamic optimization model) for enhancing a control policy for selecting vehicles and routes in a demand-responsive mobility system.
-Calculation of the willingness to pay in order to evaluate tolling policies and obtain a social optimum.
-</t>
-  </si>
-  <si>
-    <t>The acceptability of the drivers was tested by showing an image of a situation, where they responded to questions regarding choices that they would take. The results enable the authors to understand if vertical and horizontal signaling were adequate.</t>
-  </si>
-  <si>
-    <t>A simulator was created in order to develop and simulate different scenarios of dynamic lane management. This tool is also used for validating the acceptability of the drivers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature review on transportation sustainability policies in many countries in order to identify a first list of indices that relate to livability. </t>
-  </si>
-  <si>
-    <t>A Fuzzy Dephi method was used to analyze the opinions of stakeholders from Taipei City regarding the key livability and sustainability indices. A time-series analysis was executed through an ARIMA model with the aim to calculate how each index varies dynamically overtime.</t>
-  </si>
-  <si>
-    <t>A percolation process was performed in order to calculate the relative speed of road segments, and identify which cluster of connected street segments have speeds lower than the threshold.</t>
-  </si>
-  <si>
-    <t>Literature review (reports, papers, interviews, websites, books, administrative documents, decrees and norms); participation in meetings with actors and stakeholders involved with the project of Rome (case-study).</t>
-  </si>
-  <si>
-    <t>A discourse analysis and literature review of reports, documents, agendas, and interviews with officers from the London Legacy Development Corporation (LLDC) and other key stakeholders.</t>
-  </si>
-  <si>
-    <t>A model is developed to simultaneously optimize lane configuration, dynamic control of reversible lane, and signal parameters.</t>
-  </si>
-  <si>
-    <t>An optimization model for minimizing total passenger hours traveled (PHT) in a dynamic road space allocation model considering bus and automobile in a macro bi-regional case-study analysis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A macroscopic integrated model and optimization of managing road networks capacity and operations. An MFD-based system dynamic model is integrated with the equilibrium-based model resulting in a dynamic user equilibrium model.  </t>
-  </si>
-  <si>
-    <t>Optimization techniques of building the IBL system architecture and evaluating its transport performance (priority control parameter and delay)</t>
-  </si>
-  <si>
-    <t>Kinematic wave theory is used to analyze the viability, costs and benefits of BLIPs.</t>
-  </si>
-  <si>
     <t>Historical_Analysis</t>
   </si>
   <si>
@@ -13969,7 +13659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14010,21 +13700,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14049,44 +13726,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14120,57 +13761,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14231,93 +13826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14333,3812 +13842,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28829487549649235"/>
-          <c:y val="6.9285241049380067E-2"/>
-          <c:w val="0.67812479446358753"/>
-          <c:h val="0.70432059992982721"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Included paper</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B834-4A9C-BA7F-6E997AFCF686}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Big data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>complete streets</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Intermittent Bus Lane/ Bus Lane with Intermittent Priority/ IBL/ BLIP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>reversible lane</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>road diet/ lane diet</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shared spaces/ shared streets/ woonerf </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>smart cities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>smart urban mobility/ smart mobility</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>space allocation</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>traffic calming/ traffic-calming</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>urban regeneration/ urban revitalization/ urban requalification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$C$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>176</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B834-4A9C-BA7F-6E997AFCF686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Excluded paper</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B834-4A9C-BA7F-6E997AFCF686}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.0753823492052175E-3"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B834-4A9C-BA7F-6E997AFCF686}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B834-4A9C-BA7F-6E997AFCF686}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-B834-4A9C-BA7F-6E997AFCF686}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Big data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>complete streets</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Intermittent Bus Lane/ Bus Lane with Intermittent Priority/ IBL/ BLIP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>reversible lane</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>road diet/ lane diet</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shared spaces/ shared streets/ woonerf </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>smart cities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>smart urban mobility/ smart mobility</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>space allocation</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>traffic calming/ traffic-calming</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>urban regeneration/ urban revitalization/ urban requalification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$C$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B834-4A9C-BA7F-6E997AFCF686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="100"/>
-        <c:axId val="559580736"/>
-        <c:axId val="559575816"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="559580736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1200" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Keywords</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.840491481456296E-2"/>
-              <c:y val="0.358315240408838"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="none" w="sm" len="sm"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="559575816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="559575816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="15000"/>
-                      <a:lumOff val="85000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-                  <a:t>NUMBER OF PAPERS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.54829746177162075"/>
-              <c:y val="0.83236707078181515"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="559580736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34959857552186557"/>
-          <c:y val="0.88625801159766782"/>
-          <c:w val="0.36332756516779086"/>
-          <c:h val="7.3690471544991865E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10309238016244386"/>
-          <c:y val="4.2637416280006293E-2"/>
-          <c:w val="0.88170900216610215"/>
-          <c:h val="0.63270417405197632"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$29:$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Big data</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$29:$L$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>107</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$30:$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>complete streets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$30:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$31:$D$31</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Intermittent Bus Lane/ Bus Lane with Intermittent Priority/ IBL/ BLIP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$31:$L$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$32:$D$32</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>reversible lane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$32:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$33:$D$33</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>road diet/ lane diet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$33:$L$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$34:$D$34</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>shared spaces/ shared streets/ woonerf </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$34:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$35:$D$35</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>smart cities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="002060"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$35:$L$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$36:$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>smart urban mobility/ smart mobility</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$36:$L$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$37:$D$37</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>space allocation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$37:$L$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$38:$D$38</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>traffic calming/ traffic-calming</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$38:$L$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$C$39:$D$39</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>urban regeneration/ urban revitalization/ urban requalification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Descriptive analysis'!$E$28:$L$28</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1978 - 1985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986 - 1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991 - 1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996 - 2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001 - 2005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006 - 2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011 - 2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016 - 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Descriptive analysis'!$E$39:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-628F-46D3-85B6-84E323AE936A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="748935952"/>
-        <c:axId val="748939232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="748935952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748939232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="748939232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-                  <a:t>Number of filtered abstracts/period</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6367742107719626E-2"/>
-              <c:y val="0.15209135687534212"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748935952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1539145876350822"/>
-          <c:y val="0.75050682290985615"/>
-          <c:w val="0.82941572315869805"/>
-          <c:h val="0.20696453658080488"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="46000">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>185659</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>113659</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C5B587-9D86-4A9D-8A21-D4CCC4579BA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>642626</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>143738</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>374813</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>4947</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6DCA97-0577-4E07-A4E6-69A58058FDF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18463,10 +14166,10 @@
         <v>192</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1929</v>
+        <v>1836</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1930</v>
+        <v>1837</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -18474,10 +14177,10 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
@@ -37623,1936 +33326,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B7AA4-D4DA-4A94-B3EB-0728D0194899}">
-  <dimension ref="B3:N40"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>1912</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>1913</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>1840</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>1914</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>1915</v>
-      </c>
-      <c r="N3" s="50"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C4">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>103</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:M5" si="0">C6-C4</f>
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C6">
-        <v>163</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>121</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>19</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1902</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1904</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1905</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1906</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1907</v>
-      </c>
-      <c r="L28" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="53" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="K29">
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="53" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="53" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="53" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="53" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="53" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="L36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="53" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="53" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38">
-        <v>12</v>
-      </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="53" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>14</v>
-      </c>
-      <c r="I39">
-        <v>9</v>
-      </c>
-      <c r="J39">
-        <v>26</v>
-      </c>
-      <c r="K39">
-        <v>47</v>
-      </c>
-      <c r="L39">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="E40" s="49">
-        <f>SUM(E29:E39)</f>
-        <v>2</v>
-      </c>
-      <c r="F40" s="49">
-        <f t="shared" ref="F40:I40" si="1">SUM(F29:F39)</f>
-        <v>1</v>
-      </c>
-      <c r="G40" s="49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H40" s="49">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I40" s="49">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J40" s="49">
-        <f t="shared" ref="J40" si="2">SUM(J29:J39)</f>
-        <v>31</v>
-      </c>
-      <c r="K40" s="49">
-        <f t="shared" ref="K40" si="3">SUM(K29:K39)</f>
-        <v>103</v>
-      </c>
-      <c r="L40" s="49">
-        <f t="shared" ref="L40" si="4">SUM(L29:L39)</f>
-        <v>326</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AB1BFD-F857-40F7-954C-F4B1F39127CD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA24"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11" style="28" customWidth="1"/>
-    <col min="7" max="7" width="49.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" customWidth="1"/>
-    <col min="22" max="24" width="25.109375" customWidth="1"/>
-    <col min="25" max="26" width="40.5546875" customWidth="1"/>
-    <col min="27" max="27" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="54" t="s">
-        <v>1849</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55" t="s">
-        <v>1854</v>
-      </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="57" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="58" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>1843</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>1847</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>1844</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>1867</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>1863</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>1845</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>1864</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>1862</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>1846</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>1860</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>1868</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>1858</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>1850</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>1851</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>1859</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>1856</v>
-      </c>
-      <c r="Y2" s="41" t="s">
-        <v>1857</v>
-      </c>
-      <c r="Z2" s="41" t="s">
-        <v>1900</v>
-      </c>
-      <c r="AA2" s="58"/>
-    </row>
-    <row r="3" spans="1:27" s="24" customFormat="1" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="31">
-        <v>2013</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="32">
-        <v>0</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>1853</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>1852</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="48"/>
-    </row>
-    <row r="4" spans="1:27" s="24" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>28</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F4" s="27">
-        <v>2017</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="32">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="25" t="s">
-        <v>1890</v>
-      </c>
-      <c r="K4" s="32">
-        <v>0</v>
-      </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32">
-        <v>0</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>0</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>1892</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>0</v>
-      </c>
-      <c r="U4" s="32">
-        <v>1</v>
-      </c>
-      <c r="V4" s="32">
-        <v>0</v>
-      </c>
-      <c r="W4" s="32">
-        <v>1</v>
-      </c>
-      <c r="X4" s="25" t="s">
-        <v>1893</v>
-      </c>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="46" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="24" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>36</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="27">
-        <v>2016</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>1870</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="48"/>
-    </row>
-    <row r="6" spans="1:27" s="24" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>38</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>1871</v>
-      </c>
-      <c r="K6" s="32">
-        <v>1</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <v>0</v>
-      </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <v>0</v>
-      </c>
-      <c r="T6" s="32">
-        <v>1</v>
-      </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>1916</v>
-      </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="32"/>
-    </row>
-    <row r="7" spans="1:27" s="24" customFormat="1" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>42</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>1798</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-    </row>
-    <row r="8" spans="1:27" s="24" customFormat="1" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>45</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2016</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="25">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>1869</v>
-      </c>
-      <c r="K8" s="32">
-        <v>1</v>
-      </c>
-      <c r="L8" s="32">
-        <v>1</v>
-      </c>
-      <c r="M8" s="32">
-        <v>1</v>
-      </c>
-      <c r="N8" s="32">
-        <v>1</v>
-      </c>
-      <c r="O8" s="32">
-        <v>1</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>0</v>
-      </c>
-      <c r="R8" s="32">
-        <v>0</v>
-      </c>
-      <c r="S8" s="42">
-        <v>1</v>
-      </c>
-      <c r="T8" s="34">
-        <v>0</v>
-      </c>
-      <c r="U8" s="32">
-        <v>1</v>
-      </c>
-      <c r="V8" s="32">
-        <v>0</v>
-      </c>
-      <c r="W8" s="32">
-        <v>0</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>1917</v>
-      </c>
-      <c r="Y8" s="42" t="s">
-        <v>1918</v>
-      </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="24" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>113</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" s="27">
-        <v>2020</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="44">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>1875</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-    </row>
-    <row r="10" spans="1:27" s="24" customFormat="1" ht="210.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>163</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="F10" s="27">
-        <v>2019</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>1876</v>
-      </c>
-      <c r="K10" s="32">
-        <v>1</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32">
-        <v>0</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-    </row>
-    <row r="11" spans="1:27" s="24" customFormat="1" ht="283.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>276</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="F11" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="H11" s="32">
-        <v>1</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="42" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K11" s="32">
-        <v>1</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32">
-        <v>1</v>
-      </c>
-      <c r="W11" s="32">
-        <v>1</v>
-      </c>
-      <c r="X11" s="51" t="s">
-        <v>1919</v>
-      </c>
-      <c r="Y11" s="42" t="s">
-        <v>1920</v>
-      </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="32"/>
-    </row>
-    <row r="12" spans="1:27" s="24" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>318</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>932</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1</v>
-      </c>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>1873</v>
-      </c>
-      <c r="K12" s="32">
-        <v>1</v>
-      </c>
-      <c r="L12" s="32">
-        <v>1</v>
-      </c>
-      <c r="M12" s="32">
-        <v>1</v>
-      </c>
-      <c r="N12" s="32">
-        <v>1</v>
-      </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>0</v>
-      </c>
-      <c r="R12" s="32">
-        <v>0</v>
-      </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32">
-        <v>1</v>
-      </c>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="42" t="s">
-        <v>1921</v>
-      </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="32"/>
-    </row>
-    <row r="13" spans="1:27" s="24" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>395</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F13" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H13" s="32">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>1882</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-    </row>
-    <row r="14" spans="1:27" s="24" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>436</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F14" s="27">
-        <v>2020</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>1861</v>
-      </c>
-      <c r="K14" s="32">
-        <v>0</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>1</v>
-      </c>
-      <c r="S14" s="32">
-        <v>0</v>
-      </c>
-      <c r="T14" s="32">
-        <v>0</v>
-      </c>
-      <c r="U14" s="32">
-        <v>1</v>
-      </c>
-      <c r="V14" s="32">
-        <v>0</v>
-      </c>
-      <c r="W14" s="32">
-        <v>1</v>
-      </c>
-      <c r="X14" s="25" t="s">
-        <v>1922</v>
-      </c>
-      <c r="Y14" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="32"/>
-    </row>
-    <row r="15" spans="1:27" s="24" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>453</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F15" s="27">
-        <v>2017</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>1883</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="32"/>
-    </row>
-    <row r="16" spans="1:27" s="24" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>488</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F16" s="27">
-        <v>2019</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="25" t="s">
-        <v>1886</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32">
-        <v>1</v>
-      </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32">
-        <v>1</v>
-      </c>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32">
-        <v>1</v>
-      </c>
-      <c r="X16" s="25" t="s">
-        <v>1923</v>
-      </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="32"/>
-    </row>
-    <row r="17" spans="1:27" s="24" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
-        <v>569</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F17" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>1668</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="32"/>
-    </row>
-    <row r="18" spans="1:27" s="24" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>583</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F18" s="27">
-        <v>2015</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H18" s="32">
-        <v>1</v>
-      </c>
-      <c r="I18" s="32">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>1884</v>
-      </c>
-      <c r="K18" s="32">
-        <v>1</v>
-      </c>
-      <c r="L18" s="32">
-        <v>0</v>
-      </c>
-      <c r="M18" s="32">
-        <v>1</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>0</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32">
-        <v>0</v>
-      </c>
-      <c r="T18" s="32">
-        <v>0</v>
-      </c>
-      <c r="U18" s="32">
-        <v>0</v>
-      </c>
-      <c r="V18" s="32">
-        <v>1</v>
-      </c>
-      <c r="W18" s="32">
-        <v>0</v>
-      </c>
-      <c r="X18" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="25" t="s">
-        <v>1924</v>
-      </c>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="32"/>
-    </row>
-    <row r="19" spans="1:27" s="24" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>590</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F19" s="27">
-        <v>2015</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>1734</v>
-      </c>
-      <c r="H19" s="32">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>1883</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="32"/>
-    </row>
-    <row r="20" spans="1:27" s="24" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>593</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>957</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="F20" s="27">
-        <v>2016</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H20" s="32">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>1880</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="25" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="32"/>
-    </row>
-    <row r="21" spans="1:27" s="24" customFormat="1" ht="345" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>597</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F21" s="27">
-        <v>2013</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>1753</v>
-      </c>
-      <c r="H21" s="32">
-        <v>1</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="25" t="s">
-        <v>1885</v>
-      </c>
-      <c r="K21" s="32">
-        <v>1</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
-        <v>1</v>
-      </c>
-      <c r="N21" s="32">
-        <v>1</v>
-      </c>
-      <c r="O21" s="32">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>0</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32">
-        <v>1</v>
-      </c>
-      <c r="W21" s="32">
-        <v>1</v>
-      </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="51" t="s">
-        <v>1925</v>
-      </c>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="32"/>
-    </row>
-    <row r="22" spans="1:27" s="24" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>601</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F22" s="27">
-        <v>2018</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H22" s="32">
-        <v>1</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="25" t="s">
-        <v>1887</v>
-      </c>
-      <c r="K22" s="32">
-        <v>1</v>
-      </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
-        <v>1</v>
-      </c>
-      <c r="N22" s="32">
-        <v>1</v>
-      </c>
-      <c r="O22" s="32">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0</v>
-      </c>
-      <c r="T22" s="32">
-        <v>0</v>
-      </c>
-      <c r="U22" s="32" t="s">
-        <v>1888</v>
-      </c>
-      <c r="V22" s="32">
-        <v>1</v>
-      </c>
-      <c r="W22" s="32">
-        <v>1</v>
-      </c>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="25" t="s">
-        <v>1926</v>
-      </c>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="32"/>
-    </row>
-    <row r="23" spans="1:27" s="24" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>606</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F23" s="27">
-        <v>2006</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H23" s="32">
-        <v>1</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="25" t="s">
-        <v>1897</v>
-      </c>
-      <c r="K23" s="32">
-        <v>1</v>
-      </c>
-      <c r="L23" s="32">
-        <v>1</v>
-      </c>
-      <c r="M23" s="32">
-        <v>1</v>
-      </c>
-      <c r="N23" s="32">
-        <v>1</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>0</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="32">
-        <v>1</v>
-      </c>
-      <c r="T23" s="32">
-        <v>0</v>
-      </c>
-      <c r="U23" s="32">
-        <v>0</v>
-      </c>
-      <c r="V23" s="32">
-        <v>1</v>
-      </c>
-      <c r="W23" s="32">
-        <v>0</v>
-      </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="25" t="s">
-        <v>1928</v>
-      </c>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="24" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
-        <v>607</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F24" s="27">
-        <v>2004</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H24" s="32">
-        <v>1</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="25" t="s">
-        <v>1895</v>
-      </c>
-      <c r="K24" s="32">
-        <v>1</v>
-      </c>
-      <c r="L24" s="32">
-        <v>1</v>
-      </c>
-      <c r="M24" s="32">
-        <v>1</v>
-      </c>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32">
-        <v>0</v>
-      </c>
-      <c r="S24" s="32">
-        <v>1</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>1896</v>
-      </c>
-      <c r="U24" s="32">
-        <v>0</v>
-      </c>
-      <c r="V24" s="32">
-        <v>1</v>
-      </c>
-      <c r="W24" s="32">
-        <v>0</v>
-      </c>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="25" t="s">
-        <v>1927</v>
-      </c>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="25" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:W24" xr:uid="{CE47ACA8-3BA0-4626-B2C0-76BA8464CBCF}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="4">
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AA1:AA2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>